--- a/spring-oauth2-example/Keycloak.xlsx
+++ b/spring-oauth2-example/Keycloak.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kohei\OneDrive\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B4FB8E-7B2D-4CD3-8237-0F91B15606A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D95B8C-4135-4FBD-AC43-9AA0BA1921B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{19E0300B-16E4-4FED-8715-20E801E23F28}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{19E0300B-16E4-4FED-8715-20E801E23F28}"/>
   </bookViews>
   <sheets>
     <sheet name="セットアップ" sheetId="2" r:id="rId1"/>
-    <sheet name="OAuth2フロー" sheetId="3" r:id="rId2"/>
-    <sheet name="構成" sheetId="4" r:id="rId3"/>
+    <sheet name="PKCE" sheetId="5" r:id="rId2"/>
+    <sheet name="OAuth2フロー" sheetId="3" r:id="rId3"/>
+    <sheet name="構成" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>2. Clientの追加</t>
     <rPh sb="10" eb="12">
@@ -286,6 +287,10 @@
     <rPh sb="39" eb="41">
       <t>コウセイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■PKCE</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2324,6 +2329,518 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>249216</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>172423</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66D2B70C-2515-1AA5-DE39-4C379F460297}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="400050"/>
+          <a:ext cx="11222016" cy="6973273"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="吹き出し: 線 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43482E28-7C26-48E6-A2CE-16D81B88F68C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4953000" y="4629150"/>
+          <a:ext cx="1104900" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 104167"/>
+            <a:gd name="adj4" fmla="val -78333"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>puyblic</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="吹き出し: 線 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9FE171C-5C27-468A-8DAB-342AAEDBC73A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4391025" y="5829300"/>
+          <a:ext cx="1104900" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 104167"/>
+            <a:gd name="adj4" fmla="val -78333"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>OFF</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1532</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>114958</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77FACDEA-68AF-9625-0D32-20CF9C6D0056}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="7600950"/>
+          <a:ext cx="10974332" cy="4715533"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="吹き出し: 線 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B2044A9-0230-491B-B8B1-50AC4D57DB43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6296025" y="7848600"/>
+          <a:ext cx="1104900" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 104167"/>
+            <a:gd name="adj4" fmla="val -78333"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>html</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>になる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="吹き出し: 線 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D760128A-9C17-40D6-8388-A9C6B4CEC27C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3981450" y="10172700"/>
+          <a:ext cx="1104900" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 104167"/>
+            <a:gd name="adj4" fmla="val -78333"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>458700</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>76881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{312B5D3B-71A7-2254-B9B3-213FDA26DB42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="12601575"/>
+          <a:ext cx="10745700" cy="4877481"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -3734,6 +4251,414 @@
         <a:xfrm>
           <a:off x="4019550" y="6896100"/>
           <a:ext cx="1143000" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D9F6E15-520A-4307-A843-EB9737D5EEDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="8515350"/>
+          <a:ext cx="3409950" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>&lt;pkce-client&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>http://localhost:8181</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>OAuth2Client</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>SPA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>を模して、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Javascript</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>で</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>PKCE</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB4055E0-2E3A-41F3-97AB-A8DAFE860C95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5267325" y="8662988"/>
+          <a:ext cx="3619500" cy="1762125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>&lt;keycloak&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>http://localhost:8088</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Authorization</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> Server</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>realm:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Appsdeveloperblog </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>clientId: photo-app-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>pkce</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>-client</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3E5635C-A1E6-4C0D-9F96-4FDA007F8685}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="3"/>
+          <a:endCxn id="24" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4029075" y="9544050"/>
+          <a:ext cx="1238250" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4103,6 +5028,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27EA26CC-2364-4F5E-AFAB-F5A0781C4CCB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08D9C3B-E4C2-4DB3-A411-CA665F6C28C9}">
   <dimension ref="A1:T56"/>
   <sheetViews>
@@ -4359,7 +5309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B085B0-5172-425F-B0F4-234F6D5C469C}">
   <dimension ref="A1:B3"/>
   <sheetViews>
